--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H2">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I2">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J2">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N2">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O2">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P2">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q2">
-        <v>5129.566656195985</v>
+        <v>923.7289399947023</v>
       </c>
       <c r="R2">
-        <v>46166.09990576387</v>
+        <v>8313.560459952321</v>
       </c>
       <c r="S2">
-        <v>0.9076162283968214</v>
+        <v>0.7559753717451796</v>
       </c>
       <c r="T2">
-        <v>0.9076162283968213</v>
+        <v>0.7559753717451797</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H3">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I3">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J3">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.588474</v>
       </c>
       <c r="O3">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P3">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q3">
-        <v>13.37505450730711</v>
+        <v>3.156696897968222</v>
       </c>
       <c r="R3">
-        <v>120.375490565764</v>
+        <v>28.410272081714</v>
       </c>
       <c r="S3">
-        <v>0.002366557906380031</v>
+        <v>0.002583425729783965</v>
       </c>
       <c r="T3">
-        <v>0.002366557906380031</v>
+        <v>0.002583425729783965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H4">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I4">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J4">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N4">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O4">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P4">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q4">
-        <v>88.41520524163133</v>
+        <v>10.56046364351845</v>
       </c>
       <c r="R4">
-        <v>795.736847174682</v>
+        <v>95.04417279166601</v>
       </c>
       <c r="S4">
-        <v>0.01564402619028454</v>
+        <v>0.008642633226102125</v>
       </c>
       <c r="T4">
-        <v>0.01564402619028454</v>
+        <v>0.008642633226102127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>25.26019533333333</v>
+        <v>5.961753666666667</v>
       </c>
       <c r="H5">
-        <v>75.780586</v>
+        <v>17.885261</v>
       </c>
       <c r="I5">
-        <v>0.9264424786117896</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="J5">
-        <v>0.9264424786117895</v>
+        <v>0.7691652453336842</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N5">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O5">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P5">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q5">
-        <v>4.609893027617111</v>
+        <v>2.399591940074778</v>
       </c>
       <c r="R5">
-        <v>41.489037248554</v>
+        <v>21.596327460673</v>
       </c>
       <c r="S5">
-        <v>0.0008156661183035396</v>
+        <v>0.001963814632618494</v>
       </c>
       <c r="T5">
-        <v>0.0008156661183035394</v>
+        <v>0.001963814632618494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.709232</v>
       </c>
       <c r="I6">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J6">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N6">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O6">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P6">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q6">
-        <v>115.6974356849547</v>
+        <v>88.277552313328</v>
       </c>
       <c r="R6">
-        <v>1041.276921164592</v>
+        <v>794.497970819952</v>
       </c>
       <c r="S6">
-        <v>0.02047129460433515</v>
+        <v>0.07224592901377044</v>
       </c>
       <c r="T6">
-        <v>0.02047129460433515</v>
+        <v>0.07224592901377046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.709232</v>
       </c>
       <c r="I7">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J7">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.588474</v>
       </c>
       <c r="O7">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P7">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q7">
         <v>0.3016745102186666</v>
@@ -883,10 +883,10 @@
         <v>2.715070591968</v>
       </c>
       <c r="S7">
-        <v>5.337774114649566E-05</v>
+        <v>0.0002468889845650061</v>
       </c>
       <c r="T7">
-        <v>5.337774114649566E-05</v>
+        <v>0.0002468889845650061</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.709232</v>
       </c>
       <c r="I8">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J8">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N8">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O8">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P8">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q8">
-        <v>1.994205984176</v>
+        <v>1.009226669621333</v>
       </c>
       <c r="R8">
-        <v>17.947853857584</v>
+        <v>9.083040026592002</v>
       </c>
       <c r="S8">
-        <v>0.0003528511929595323</v>
+        <v>0.0008259463070914643</v>
       </c>
       <c r="T8">
-        <v>0.0003528511929595322</v>
+        <v>0.0008259463070914644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.709232</v>
       </c>
       <c r="I9">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="J9">
-        <v>0.02089592089724123</v>
+        <v>0.07350643921898506</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N9">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O9">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P9">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q9">
-        <v>0.1039761909386667</v>
+        <v>0.2293206305973333</v>
       </c>
       <c r="R9">
-        <v>0.9357857184480001</v>
+        <v>2.063885675376</v>
       </c>
       <c r="S9">
-        <v>1.839735880005198E-05</v>
+        <v>0.00018767491355814</v>
       </c>
       <c r="T9">
-        <v>1.839735880005197E-05</v>
+        <v>0.0001876749135581401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H10">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I10">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J10">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N10">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O10">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P10">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q10">
-        <v>239.7751971682654</v>
+        <v>177.129631368452</v>
       </c>
       <c r="R10">
-        <v>2157.976774514389</v>
+        <v>1594.166682316068</v>
       </c>
       <c r="S10">
-        <v>0.04242538886868703</v>
+        <v>0.1449620479808937</v>
       </c>
       <c r="T10">
-        <v>0.04242538886868702</v>
+        <v>0.1449620479808937</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H11">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I11">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J11">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.588474</v>
       </c>
       <c r="O11">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P11">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q11">
-        <v>0.6252002452784444</v>
+        <v>0.6053123743013332</v>
       </c>
       <c r="R11">
-        <v>5.626802207506</v>
+        <v>5.447811368711999</v>
       </c>
       <c r="S11">
-        <v>0.0001106217984178017</v>
+        <v>0.0004953847685956794</v>
       </c>
       <c r="T11">
-        <v>0.0001106217984178017</v>
+        <v>0.0004953847685956794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H12">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I12">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J12">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N12">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O12">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P12">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q12">
-        <v>4.132858522050332</v>
+        <v>2.025021574258667</v>
       </c>
       <c r="R12">
-        <v>37.195726698453</v>
+        <v>18.225194168328</v>
       </c>
       <c r="S12">
-        <v>0.0007312604973658165</v>
+        <v>0.001657268026485112</v>
       </c>
       <c r="T12">
-        <v>0.0007312604973658164</v>
+        <v>0.001657268026485112</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.180756333333333</v>
+        <v>1.143196</v>
       </c>
       <c r="H13">
-        <v>3.542269</v>
+        <v>3.429588</v>
       </c>
       <c r="I13">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="J13">
-        <v>0.04330539846009775</v>
+        <v>0.1474912720263607</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N13">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O13">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P13">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q13">
-        <v>0.2154837013934444</v>
+        <v>0.4601337225426666</v>
       </c>
       <c r="R13">
-        <v>1.939353312541</v>
+        <v>4.141203502883999</v>
       </c>
       <c r="S13">
-        <v>3.812729562710113E-05</v>
+        <v>0.0003765712503861584</v>
       </c>
       <c r="T13">
-        <v>3.812729562710112E-05</v>
+        <v>0.0003765712503861584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H14">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I14">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J14">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>203.0691603333333</v>
+        <v>154.942487</v>
       </c>
       <c r="N14">
-        <v>609.207481</v>
+        <v>464.827461</v>
       </c>
       <c r="O14">
-        <v>0.9796789863919257</v>
+        <v>0.982851703624775</v>
       </c>
       <c r="P14">
-        <v>0.9796789863919257</v>
+        <v>0.9828517036247751</v>
       </c>
       <c r="Q14">
-        <v>51.80382276739478</v>
+        <v>11.81379651129767</v>
       </c>
       <c r="R14">
-        <v>466.234404906553</v>
+        <v>106.324168601679</v>
       </c>
       <c r="S14">
-        <v>0.009166074522082167</v>
+        <v>0.009668354884931266</v>
       </c>
       <c r="T14">
-        <v>0.009166074522082167</v>
+        <v>0.009668354884931266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H15">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I15">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J15">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.588474</v>
       </c>
       <c r="O15">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="P15">
-        <v>0.002554457466076205</v>
+        <v>0.003358739549735124</v>
       </c>
       <c r="Q15">
-        <v>0.1350755335957778</v>
+        <v>0.04037177269844444</v>
       </c>
       <c r="R15">
-        <v>1.215679802362</v>
+        <v>0.363345954286</v>
       </c>
       <c r="S15">
-        <v>2.390002013187679E-05</v>
+        <v>3.304006679047369E-05</v>
       </c>
       <c r="T15">
-        <v>2.390002013187679E-05</v>
+        <v>3.304006679047369E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H16">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I16">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J16">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.500179</v>
+        <v>1.771368666666667</v>
       </c>
       <c r="N16">
-        <v>10.500537</v>
+        <v>5.314106000000001</v>
       </c>
       <c r="O16">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078883</v>
       </c>
       <c r="P16">
-        <v>0.01688612790480639</v>
+        <v>0.01123638032078884</v>
       </c>
       <c r="Q16">
-        <v>0.8929108303423332</v>
+        <v>0.1350603658148889</v>
       </c>
       <c r="R16">
-        <v>8.036197473081</v>
+        <v>1.215543292334</v>
       </c>
       <c r="S16">
-        <v>0.0001579900241965037</v>
+        <v>0.0001105327611101328</v>
       </c>
       <c r="T16">
-        <v>0.0001579900241965037</v>
+        <v>0.0001105327611101328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2551043333333333</v>
+        <v>0.07624633333333333</v>
       </c>
       <c r="H17">
-        <v>0.765313</v>
+        <v>0.228739</v>
       </c>
       <c r="I17">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="J17">
-        <v>0.009356202030871397</v>
+        <v>0.009837043420970016</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1824963333333333</v>
+        <v>0.4024976666666666</v>
       </c>
       <c r="N17">
-        <v>0.547489</v>
+        <v>1.207493</v>
       </c>
       <c r="O17">
-        <v>0.0008804282371915408</v>
+        <v>0.002553176504700935</v>
       </c>
       <c r="P17">
-        <v>0.0008804282371915407</v>
+        <v>0.002553176504700936</v>
       </c>
       <c r="Q17">
-        <v>0.04655560545077778</v>
+        <v>0.03068897125855555</v>
       </c>
       <c r="R17">
-        <v>0.419000449057</v>
+        <v>0.276200741327</v>
       </c>
       <c r="S17">
-        <v>8.237464460848018E-06</v>
+        <v>2.511570813814356E-05</v>
       </c>
       <c r="T17">
-        <v>8.237464460848016E-06</v>
+        <v>2.511570813814356E-05</v>
       </c>
     </row>
   </sheetData>
